--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABC/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABC/20/seed2/result_data_KNN.xlsx
@@ -465,7 +465,7 @@
         <v>-21.2</v>
       </c>
       <c r="B2" t="n">
-        <v>6.339999999999999</v>
+        <v>6.495</v>
       </c>
       <c r="C2" t="n">
         <v>-10.8</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.45200000000001</v>
+        <v>-21.557</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -516,10 +516,10 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.566</v>
+        <v>6.234</v>
       </c>
       <c r="C5" t="n">
-        <v>-11.75</v>
+        <v>-12.404</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -587,7 +587,7 @@
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.772</v>
+        <v>-12.057</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -621,7 +621,7 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.83</v>
+        <v>-12.495</v>
       </c>
       <c r="D11" t="n">
         <v>-8.01</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.176</v>
+        <v>-20.891</v>
       </c>
       <c r="B14" t="n">
         <v>8.33</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.536</v>
+        <v>-21.363</v>
       </c>
       <c r="B16" t="n">
-        <v>6.036</v>
+        <v>6.008</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -723,7 +723,7 @@
         <v>11.21</v>
       </c>
       <c r="C17" t="n">
-        <v>-11.4</v>
+        <v>-12.048</v>
       </c>
       <c r="D17" t="n">
         <v>-6.63</v>
@@ -785,13 +785,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.294</v>
+        <v>-21.898</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-11.438</v>
+        <v>-12.984</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-22.138</v>
+        <v>-21.709</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.414</v>
+        <v>-22.078</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
